--- a/biology/Histoire de la zoologie et de la botanique/James_Solberg_Henrickson/James_Solberg_Henrickson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Solberg_Henrickson/James_Solberg_Henrickson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Solberg Henrickson, né en 1940, est un botaniste américain né à Eau Claire, Wisconsin. 
-Il est actuellement[évasif] chercheur au Plant Resources Center de l'Université du Texas à Austin après avoir été professeur de biologie à l'Université d'État de Californie de Los Angeles[1].  
+Il est actuellement[évasif] chercheur au Plant Resources Center de l'Université du Texas à Austin après avoir été professeur de biologie à l'Université d'État de Californie de Los Angeles.  
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1964 - Pollen morphology of Fouquieriaceae (Morphologie du pollen des Fouquieriaceae), Thèse (MA), Claremont Graduate School, 110 pp.
 1968 - Vegetative Morphology of the Fouquieriacae (Morphologie végétative des Fouquieriacae), Dissertation (PhD), Claremont Graduate School, 234 p.
@@ -520,21 +534,55 @@
 1973 - Fouquieriacea DC., Volume 1  : World Pollen and Spore Flora, Ed. Almqvist &amp; Wiksell Periodical Co., 12 p.
 1969 -  Anatomy of Periderm and Cortex of Fouquieriaceae (Anatomie du péri-derme et du cortex de Fouquieriaceae), 30 pp.
 1971 - Vascular Flora of the Northeast Outer Slopes of Haleakala Crater, East Maui, Hawaii (Flore vasculaire du versant extérieur nord-est du cratère Haleakala, Maui Est, Hawaii), Nº 7 of Contributions from the Nature Conservancy, Ed. Nature Conservancy, 14 pp.
-1972 - A Taxonomic Revision of the Fouquieriacea (Révision taxonomique de la Fouquieriacea), Rancho Santa Ana Botanic Garden Ed., 99 pp.
-Reconnaissance
-Liste des espèces botaniques portant son nom : 
-Acanthaceae Carlowrightia henricksonii TFDaniel [2]
-Asteraceae Gaillardia henricksonii BLTurner [3]
-Boraginaceae Cynoglossum henricksonii LCHiggins [4]
-Brassicaceae Mancoa henricksonii Rollins [5]
-Cactaceae Coryphantha henricksonii (Verre &amp; RAFoster) Verre &amp; RAFoster [6]
-Campanulaceae Lobelia henricksonii MCJohnst. [7]
-Euphorbiaceae Euphorbia henricksonii MCJohnst. [8]
-Malvaceae Anoda henricksonii MCJohnst. [9]
-Polygonaceae Eriogonum henricksonii James Lauritz Reveal [10]
-Ranunculaceae Thalictrum henricksonii MCJohnst. [11]
-Rubiaceae Chiococca henricksonii MCJohnst. [12]
-Scrophulariaceae Penstemon henricksonii RMStraw [13]</t>
+1972 - A Taxonomic Revision of the Fouquieriacea (Révision taxonomique de la Fouquieriacea), Rancho Santa Ana Botanic Garden Ed., 99 pp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>James_Solberg_Henrickson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Solberg_Henrickson</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Reconnaissance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces botaniques portant son nom : 
+Acanthaceae Carlowrightia henricksonii TFDaniel 
+Asteraceae Gaillardia henricksonii BLTurner 
+Boraginaceae Cynoglossum henricksonii LCHiggins 
+Brassicaceae Mancoa henricksonii Rollins 
+Cactaceae Coryphantha henricksonii (Verre &amp; RAFoster) Verre &amp; RAFoster 
+Campanulaceae Lobelia henricksonii MCJohnst. 
+Euphorbiaceae Euphorbia henricksonii MCJohnst. 
+Malvaceae Anoda henricksonii MCJohnst. 
+Polygonaceae Eriogonum henricksonii James Lauritz Reveal 
+Ranunculaceae Thalictrum henricksonii MCJohnst. 
+Rubiaceae Chiococca henricksonii MCJohnst. 
+Scrophulariaceae Penstemon henricksonii RMStraw </t>
         </is>
       </c>
     </row>
